--- a/network_data.xlsx
+++ b/network_data.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Μετσόβιο\3ο έτος\5ο εξάμηνο\Εφαρμοσμένη Ρευστομηχανική\Προαιρετικό θέμα\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE1E867-4F2C-4BC9-936D-227238A12AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417DBFD3-891D-4555-83CE-6C4897EA3338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C0B43FF8-6247-4A34-AA95-515629D11FF9}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
     <sheet name="Edges" sheetId="2" r:id="rId2"/>
+    <sheet name="Params" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>x</t>
   </si>
@@ -58,6 +56,27 @@
   </si>
   <si>
     <t>Length</t>
+  </si>
+  <si>
+    <t>ζ</t>
+  </si>
+  <si>
+    <t>D [mm]</t>
+  </si>
+  <si>
+    <t>ε</t>
+  </si>
+  <si>
+    <t>v [m^2/s]</t>
+  </si>
+  <si>
+    <t>ρ [kg/m^3]</t>
+  </si>
+  <si>
+    <t>boundary_conditions_nodes</t>
+  </si>
+  <si>
+    <t>note: Do not initialize D. I will automatically change.</t>
   </si>
 </sst>
 </file>
@@ -114,7 +133,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{15F2D4F0-55F4-4331-AEB5-4A3EC475F517}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -425,10 +444,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF63A54D-2133-4FAE-A68F-7F6049474687}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -653,16 +672,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A11607-AF54-43B2-87CA-0D9AD4A96870}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -672,8 +691,11 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -683,8 +705,11 @@
       <c r="C2">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -694,8 +719,11 @@
       <c r="C3">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -705,8 +733,11 @@
       <c r="C4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -716,8 +747,11 @@
       <c r="C5">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -727,8 +761,11 @@
       <c r="C6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -738,8 +775,11 @@
       <c r="C7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -749,8 +789,11 @@
       <c r="C8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -760,8 +803,11 @@
       <c r="C9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -771,8 +817,11 @@
       <c r="C10">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -782,8 +831,11 @@
       <c r="C11">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -793,8 +845,11 @@
       <c r="C12">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -804,8 +859,11 @@
       <c r="C13">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -815,8 +873,11 @@
       <c r="C14">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -826,8 +887,11 @@
       <c r="C15">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -837,8 +901,11 @@
       <c r="C16">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -848,8 +915,11 @@
       <c r="C17">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -859,8 +929,11 @@
       <c r="C18">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -869,6 +942,68 @@
       </c>
       <c r="C19">
         <v>40</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.3</v>
+      </c>
+      <c r="B2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C2">
+        <f>13.57*10^-6</f>
+        <v>1.3569999999999999E-5</v>
+      </c>
+      <c r="D2">
+        <v>0.79</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/network_data.xlsx
+++ b/network_data.xlsx
@@ -5,18 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Μετσόβιο\3ο έτος\5ο εξάμηνο\Εφαρμοσμένη Ρευστομηχανική\Προαιρετικό θέμα\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Μετσόβιο\3ο έτος\5ο εξάμηνο\ΕΦΑΡΜΟΣΜΕΝΗ ΡΕΥΣΤΟΜΗΧΑΝΙΚΗ\Προαιρετικό θέμα\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417DBFD3-891D-4555-83CE-6C4897EA3338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1EC24C-C520-4B01-B4F5-17916216DC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
     <sheet name="Edges" sheetId="2" r:id="rId2"/>
     <sheet name="Params" sheetId="3" r:id="rId3"/>
+    <sheet name="Daily demand" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Daily demand'!$C$2:$F$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>x</t>
   </si>
@@ -43,12 +47,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>Node A</t>
   </si>
   <si>
@@ -61,9 +59,6 @@
     <t>ζ</t>
   </si>
   <si>
-    <t>D [mm]</t>
-  </si>
-  <si>
     <t>ε</t>
   </si>
   <si>
@@ -73,10 +68,22 @@
     <t>ρ [kg/m^3]</t>
   </si>
   <si>
-    <t>boundary_conditions_nodes</t>
-  </si>
-  <si>
-    <t>note: Do not initialize D. I will automatically change.</t>
+    <t>D [m]</t>
+  </si>
+  <si>
+    <t>note: Do not initialize D. It is automatically calculated in the code.</t>
+  </si>
+  <si>
+    <t>nodes_with_boundary_conditions</t>
+  </si>
+  <si>
+    <t>P[Pa]</t>
+  </si>
+  <si>
+    <t>Q[m^3/s]</t>
+  </si>
+  <si>
+    <t>D[m]</t>
   </si>
 </sst>
 </file>
@@ -447,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="103" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -481,7 +488,7 @@
         <v>3000</v>
       </c>
       <c r="D2">
-        <v>0.27777800000000002</v>
+        <v>1.38889</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -495,7 +502,7 @@
         <v>2980</v>
       </c>
       <c r="D3">
-        <v>-1.1110999999999999E-2</v>
+        <v>-5.5599999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -509,7 +516,7 @@
         <v>2930</v>
       </c>
       <c r="D4">
-        <v>-1.6667000000000001E-2</v>
+        <v>-8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -523,7 +530,7 @@
         <v>2900</v>
       </c>
       <c r="D5">
-        <v>-2.2221999999999999E-2</v>
+        <v>-0.1111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -537,7 +544,7 @@
         <v>2880</v>
       </c>
       <c r="D6">
-        <v>-4.1667000000000003E-2</v>
+        <v>-0.20830000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -551,7 +558,7 @@
         <v>2810</v>
       </c>
       <c r="D7">
-        <v>-1.9443999999999999E-2</v>
+        <v>-9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -565,7 +572,7 @@
         <v>2760</v>
       </c>
       <c r="D8">
-        <v>-1.9443999999999999E-2</v>
+        <v>-9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -579,7 +586,7 @@
         <v>2700</v>
       </c>
       <c r="D9">
-        <v>-1.6667000000000001E-2</v>
+        <v>-8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -593,7 +600,7 @@
         <v>2650</v>
       </c>
       <c r="D10">
-        <v>-5.5560000000000002E-3</v>
+        <v>-2.7799999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -607,7 +614,7 @@
         <v>2610</v>
       </c>
       <c r="D11">
-        <v>-1.1110999999999999E-2</v>
+        <v>-5.5599999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -621,7 +628,7 @@
         <v>2560</v>
       </c>
       <c r="D12">
-        <v>-1.3889E-2</v>
+        <v>-6.9400000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -635,7 +642,7 @@
         <v>2540</v>
       </c>
       <c r="D13">
-        <v>-2.2221999999999999E-2</v>
+        <v>-0.1111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -649,7 +656,7 @@
         <v>2520</v>
       </c>
       <c r="D14">
-        <v>-1.6667000000000001E-2</v>
+        <v>-8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -663,7 +670,7 @@
         <v>2500</v>
       </c>
       <c r="D15">
-        <v>-6.1110999999999999E-2</v>
+        <v>-0.30559999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -673,29 +680,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -706,10 +716,13 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -720,10 +733,13 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -734,10 +750,13 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -748,10 +767,13 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -762,10 +784,13 @@
         <v>60</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -776,10 +801,13 @@
         <v>60</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -790,10 +818,13 @@
         <v>60</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -804,10 +835,13 @@
         <v>60</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -818,10 +852,13 @@
         <v>60</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -832,10 +869,13 @@
         <v>60</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -846,10 +886,13 @@
         <v>60</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -860,10 +903,13 @@
         <v>60</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -874,10 +920,13 @@
         <v>60</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -888,10 +937,13 @@
         <v>60</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -902,10 +954,13 @@
         <v>60</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -916,10 +971,13 @@
         <v>60</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -930,10 +988,13 @@
         <v>60</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="E18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -944,7 +1005,10 @@
         <v>40</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1.3</v>
+      </c>
+      <c r="E19">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -957,7 +1021,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,31 +1032,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="B2">
-        <v>1.0000000000000001E-5</v>
+        <v>0.05</v>
       </c>
       <c r="C2">
-        <f>13.57*10^-6</f>
-        <v>1.3569999999999999E-5</v>
+        <v>1.3570000000000001E-5</v>
       </c>
       <c r="D2">
         <v>0.79</v>
@@ -1003,7 +1066,87 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04931DC-3545-4AF0-B186-9B686BA492D9}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.97222200000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.0416669999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.388889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1.6666669999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.8055559999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1.5972219999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1.4583330000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.5972219999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.6666669999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.4583330000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.97222200000000003</v>
       </c>
     </row>
   </sheetData>

--- a/network_data.xlsx
+++ b/network_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Μετσόβιο\3ο έτος\5ο εξάμηνο\ΕΦΑΡΜΟΣΜΕΝΗ ΡΕΥΣΤΟΜΗΧΑΝΙΚΗ\Προαιρετικό θέμα\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1EC24C-C520-4B01-B4F5-17916216DC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98271AA1-57A1-4122-91B2-9EE187CA4654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
     <sheet name="Edges" sheetId="2" r:id="rId2"/>
     <sheet name="Params" sheetId="3" r:id="rId3"/>
     <sheet name="Daily demand" sheetId="4" r:id="rId4"/>
+    <sheet name="Standardized diameters" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Daily demand'!$C$2:$F$13</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>x</t>
   </si>
@@ -68,12 +69,6 @@
     <t>ρ [kg/m^3]</t>
   </si>
   <si>
-    <t>D [m]</t>
-  </si>
-  <si>
-    <t>note: Do not initialize D. It is automatically calculated in the code.</t>
-  </si>
-  <si>
     <t>nodes_with_boundary_conditions</t>
   </si>
   <si>
@@ -84,14 +79,36 @@
   </si>
   <si>
     <t>D[m]</t>
+  </si>
+  <si>
+    <t>Dout [mm]</t>
+  </si>
+  <si>
+    <t>t[mm]</t>
+  </si>
+  <si>
+    <t>Din[mm]</t>
+  </si>
+  <si>
+    <t>Din[m]</t>
+  </si>
+  <si>
+    <t>nodeA</t>
+  </si>
+  <si>
+    <t>nodeB</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -131,12 +148,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="87" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,10 +491,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -487,7 +507,7 @@
       <c r="C2" s="2">
         <v>3000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1.38889</v>
       </c>
     </row>
@@ -501,7 +521,7 @@
       <c r="C3" s="2">
         <v>2980</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>-5.5599999999999997E-2</v>
       </c>
     </row>
@@ -515,7 +535,7 @@
       <c r="C4" s="2">
         <v>2930</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>-8.3299999999999999E-2</v>
       </c>
     </row>
@@ -529,7 +549,7 @@
       <c r="C5" s="2">
         <v>2900</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>-0.1111</v>
       </c>
     </row>
@@ -543,7 +563,7 @@
       <c r="C6" s="2">
         <v>2880</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>-0.20830000000000001</v>
       </c>
     </row>
@@ -557,7 +577,7 @@
       <c r="C7" s="2">
         <v>2810</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>-9.7199999999999995E-2</v>
       </c>
     </row>
@@ -571,7 +591,7 @@
       <c r="C8" s="2">
         <v>2760</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>-9.7199999999999995E-2</v>
       </c>
     </row>
@@ -585,7 +605,7 @@
       <c r="C9" s="2">
         <v>2700</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>-8.3299999999999999E-2</v>
       </c>
     </row>
@@ -599,7 +619,7 @@
       <c r="C10" s="2">
         <v>2650</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>-2.7799999999999998E-2</v>
       </c>
     </row>
@@ -613,7 +633,7 @@
       <c r="C11" s="2">
         <v>2610</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>-5.5599999999999997E-2</v>
       </c>
     </row>
@@ -627,7 +647,7 @@
       <c r="C12" s="2">
         <v>2560</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>-6.9400000000000003E-2</v>
       </c>
     </row>
@@ -641,7 +661,7 @@
       <c r="C13" s="2">
         <v>2540</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>-0.1111</v>
       </c>
     </row>
@@ -655,7 +675,7 @@
       <c r="C14" s="2">
         <v>2520</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>-8.3299999999999999E-2</v>
       </c>
     </row>
@@ -669,7 +689,7 @@
       <c r="C15" s="2">
         <v>2500</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>-0.30559999999999998</v>
       </c>
     </row>
@@ -682,333 +702,333 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>60</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <v>1.3</v>
-      </c>
-      <c r="E3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>60</v>
-      </c>
-      <c r="D4">
-        <v>1.3</v>
-      </c>
-      <c r="E4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="C19" s="1">
         <v>40</v>
       </c>
-      <c r="D5">
-        <v>1.3</v>
-      </c>
-      <c r="E5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>60</v>
-      </c>
-      <c r="D6">
-        <v>1.3</v>
-      </c>
-      <c r="E6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>60</v>
-      </c>
-      <c r="D7">
-        <v>1.3</v>
-      </c>
-      <c r="E7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>60</v>
-      </c>
-      <c r="D8">
-        <v>1.3</v>
-      </c>
-      <c r="E8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9">
-        <v>1.3</v>
-      </c>
-      <c r="E9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>60</v>
-      </c>
-      <c r="D10">
-        <v>1.3</v>
-      </c>
-      <c r="E10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>60</v>
-      </c>
-      <c r="D11">
-        <v>1.3</v>
-      </c>
-      <c r="E11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>60</v>
-      </c>
-      <c r="D12">
-        <v>1.3</v>
-      </c>
-      <c r="E12">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>60</v>
-      </c>
-      <c r="D13">
-        <v>1.3</v>
-      </c>
-      <c r="E13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>60</v>
-      </c>
-      <c r="D14">
-        <v>1.3</v>
-      </c>
-      <c r="E14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>60</v>
-      </c>
-      <c r="D15">
-        <v>1.3</v>
-      </c>
-      <c r="E15">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>60</v>
-      </c>
-      <c r="D16">
-        <v>1.3</v>
-      </c>
-      <c r="E16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>60</v>
-      </c>
-      <c r="D17">
-        <v>1.3</v>
-      </c>
-      <c r="E17">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>60</v>
-      </c>
-      <c r="D18">
-        <v>1.3</v>
-      </c>
-      <c r="E18">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <v>1.3</v>
-      </c>
-      <c r="E19">
-        <v>0.3</v>
+      <c r="D19" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.28999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1018,55 +1038,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" customWidth="1"/>
     <col min="5" max="5" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.7</v>
-      </c>
-      <c r="B2">
         <v>0.05</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="1">
         <v>1.3570000000000001E-5</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="1">
         <v>0.79</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1078,75 +1089,673 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04931DC-3545-4AF0-B186-9B686BA492D9}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0.97222200000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1.0416669999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1.388889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1.6666669999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1.8055559999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1.5972219999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1.4583330000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1.5972219999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1.6666669999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1.4583330000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0.97222200000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66633837-0514-4681-8B35-BAEC6ED7148D}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.97222200000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>0.16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.0416669999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>A3-B3</f>
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <f>C3/100</f>
+        <v>0.18</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1.125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C4">
+        <f>A4-B4</f>
+        <v>22.7</v>
+      </c>
+      <c r="D4">
+        <f>C4/100</f>
+        <v>0.22699999999999998</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1.388889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>A5-B5</f>
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <f>C5/100</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1.6666669999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>3.7</v>
+      </c>
+      <c r="C6">
+        <f>A6-B6</f>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D6">
+        <f>C6/100</f>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1.8055559999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1.5972219999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1.4583330000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1.5972219999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1.6666669999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1.4583330000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0.97222200000000003</v>
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C7">
+        <f>A7-B7</f>
+        <v>45.4</v>
+      </c>
+      <c r="D7">
+        <f>C7/100</f>
+        <v>0.45399999999999996</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="C8">
+        <f>A8-B8</f>
+        <v>57.2</v>
+      </c>
+      <c r="D8">
+        <f>C8/100</f>
+        <v>0.57200000000000006</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>75</v>
+      </c>
+      <c r="B9">
+        <v>6.8</v>
+      </c>
+      <c r="C9">
+        <f>A9-B9</f>
+        <v>68.2</v>
+      </c>
+      <c r="D9">
+        <f>C9/100</f>
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>90</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C10">
+        <f>A10-B10</f>
+        <v>81.8</v>
+      </c>
+      <c r="D10">
+        <f>C10/100</f>
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f>A11-B11</f>
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <f>C11/100</f>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>125</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="C12">
+        <f>A12-B12</f>
+        <v>113.6</v>
+      </c>
+      <c r="D12">
+        <f>C12/100</f>
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>140</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="C13">
+        <f>A13-B13</f>
+        <v>127.3</v>
+      </c>
+      <c r="D13">
+        <f>C13/100</f>
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>160</v>
+      </c>
+      <c r="B14" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="C14">
+        <f>A14-B14</f>
+        <v>145.4</v>
+      </c>
+      <c r="D14">
+        <f>C14/100</f>
+        <v>1.454</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>180</v>
+      </c>
+      <c r="B15" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C15">
+        <f>A15-B15</f>
+        <v>163.6</v>
+      </c>
+      <c r="D15">
+        <f>C15/100</f>
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>200</v>
+      </c>
+      <c r="B16" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="C16">
+        <f>A16-B16</f>
+        <v>181.8</v>
+      </c>
+      <c r="D16">
+        <f>C16/100</f>
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>225</v>
+      </c>
+      <c r="B17" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="C17">
+        <f>A17-B17</f>
+        <v>204.5</v>
+      </c>
+      <c r="D17">
+        <f>C17/100</f>
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>250</v>
+      </c>
+      <c r="B18" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="C18">
+        <f>A18-B18</f>
+        <v>227.3</v>
+      </c>
+      <c r="D18">
+        <f>C18/100</f>
+        <v>2.2730000000000001</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>280</v>
+      </c>
+      <c r="B19" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="C19">
+        <f>A19-B19</f>
+        <v>254.6</v>
+      </c>
+      <c r="D19">
+        <f>C19/100</f>
+        <v>2.5459999999999998</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>315</v>
+      </c>
+      <c r="B20" s="3">
+        <v>28.6</v>
+      </c>
+      <c r="C20">
+        <f>A20-B20</f>
+        <v>286.39999999999998</v>
+      </c>
+      <c r="D20">
+        <f>C20/100</f>
+        <v>2.8639999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>355</v>
+      </c>
+      <c r="B21" s="3">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C21">
+        <f>A21-B21</f>
+        <v>322.8</v>
+      </c>
+      <c r="D21">
+        <f>C21/100</f>
+        <v>3.2280000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>400</v>
+      </c>
+      <c r="B22" s="3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C22">
+        <f>A22-B22</f>
+        <v>363.7</v>
+      </c>
+      <c r="D22">
+        <f>C22/100</f>
+        <v>3.637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>450</v>
+      </c>
+      <c r="B23" s="3">
+        <v>40.9</v>
+      </c>
+      <c r="C23">
+        <f>A23-B23</f>
+        <v>409.1</v>
+      </c>
+      <c r="D23">
+        <f>C23/100</f>
+        <v>4.0910000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>500</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45.4</v>
+      </c>
+      <c r="C24">
+        <f>A24-B24</f>
+        <v>454.6</v>
+      </c>
+      <c r="D24">
+        <f>C24/100</f>
+        <v>4.5460000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>560</v>
+      </c>
+      <c r="B25" s="3">
+        <v>50.8</v>
+      </c>
+      <c r="C25">
+        <f>A25-B25</f>
+        <v>509.2</v>
+      </c>
+      <c r="D25">
+        <f>C25/100</f>
+        <v>5.0919999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>630</v>
+      </c>
+      <c r="B26" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="C26">
+        <f>A26-B26</f>
+        <v>572.79999999999995</v>
+      </c>
+      <c r="D26">
+        <f>C26/100</f>
+        <v>5.7279999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/network_data.xlsx
+++ b/network_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Μετσόβιο\3ο έτος\5ο εξάμηνο\ΕΦΑΡΜΟΣΜΕΝΗ ΡΕΥΣΤΟΜΗΧΑΝΙΚΗ\Προαιρετικό θέμα\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98271AA1-57A1-4122-91B2-9EE187CA4654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194497C6-5F2A-41D9-A27B-A8359BD46493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>x</t>
   </si>
@@ -99,7 +99,7 @@
     <t>nodeB</t>
   </si>
   <si>
-    <t>d</t>
+    <t>d[mm]</t>
   </si>
 </sst>
 </file>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -892,7 +892,7 @@
         <v>1.3</v>
       </c>
       <c r="E11" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -909,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -926,7 +926,7 @@
         <v>1.5</v>
       </c>
       <c r="E13" s="1">
-        <v>0.22700000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -943,7 +943,7 @@
         <v>1.3</v>
       </c>
       <c r="E14" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -960,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>0.22700000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -977,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -994,7 +994,7 @@
         <v>1.5</v>
       </c>
       <c r="E17" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1011,7 +1011,7 @@
         <v>1.5</v>
       </c>
       <c r="E18" s="1">
-        <v>0.22700000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
         <v>1.5</v>
       </c>
       <c r="E19" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1167,15 +1167,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66633837-0514-4681-8B35-BAEC6ED7148D}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1197,8 +1197,11 @@
       <c r="H1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1220,8 +1223,11 @@
       <c r="H2">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1245,8 +1251,11 @@
       <c r="H3">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>25</v>
       </c>
@@ -1270,8 +1279,11 @@
       <c r="H4">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>32</v>
       </c>
@@ -1295,8 +1307,11 @@
       <c r="H5">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1320,8 +1335,11 @@
       <c r="H6">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1345,8 +1363,11 @@
       <c r="H7">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>63</v>
       </c>
@@ -1370,8 +1391,11 @@
       <c r="H8">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>75</v>
       </c>
@@ -1395,8 +1419,11 @@
       <c r="H9">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>90</v>
       </c>
@@ -1420,8 +1447,11 @@
       <c r="H10">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>110</v>
       </c>
@@ -1445,8 +1475,11 @@
       <c r="H11">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>125</v>
       </c>
@@ -1470,8 +1503,11 @@
       <c r="H12">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>140</v>
       </c>
@@ -1495,8 +1531,11 @@
       <c r="H13">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>160</v>
       </c>
@@ -1520,8 +1559,11 @@
       <c r="H14">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>180</v>
       </c>
@@ -1545,8 +1587,11 @@
       <c r="H15">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>200</v>
       </c>
@@ -1570,8 +1615,11 @@
       <c r="H16">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>225</v>
       </c>
@@ -1595,8 +1643,11 @@
       <c r="H17">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>250</v>
       </c>
@@ -1620,8 +1671,11 @@
       <c r="H18">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>280</v>
       </c>
@@ -1645,8 +1699,11 @@
       <c r="H19">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>315</v>
       </c>
@@ -1662,7 +1719,7 @@
         <v>2.8639999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>355</v>
       </c>
@@ -1678,7 +1735,7 @@
         <v>3.2280000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>400</v>
       </c>
@@ -1694,7 +1751,7 @@
         <v>3.637</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>450</v>
       </c>
@@ -1710,7 +1767,7 @@
         <v>4.0910000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>500</v>
       </c>
@@ -1726,7 +1783,7 @@
         <v>4.5460000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>560</v>
       </c>
@@ -1742,7 +1799,7 @@
         <v>5.0919999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>630</v>
       </c>

--- a/network_data.xlsx
+++ b/network_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Μετσόβιο\3ο έτος\5ο εξάμηνο\ΕΦΑΡΜΟΣΜΕΝΗ ΡΕΥΣΤΟΜΗΧΑΝΙΚΗ\Προαιρετικό θέμα\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194497C6-5F2A-41D9-A27B-A8359BD46493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6352CE0-85B6-42A9-809F-E7323E4B2B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>x</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Node B</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
     <t>ζ</t>
   </si>
   <si>
@@ -99,7 +96,19 @@
     <t>nodeB</t>
   </si>
   <si>
-    <t>d[mm]</t>
+    <t>L[m]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*diameters from 2nd iter </t>
+  </si>
+  <si>
+    <t>d[mm] *</t>
+  </si>
+  <si>
+    <t>Din[mm] **</t>
+  </si>
+  <si>
+    <t>**standardized diameters</t>
   </si>
 </sst>
 </file>
@@ -108,7 +117,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -156,7 +165,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +484,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,10 +500,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -700,15 +709,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -716,16 +725,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -741,8 +750,9 @@
       <c r="E2" s="1">
         <v>0.68200000000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -758,8 +768,9 @@
       <c r="E3" s="1">
         <v>0.45400000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -775,8 +786,9 @@
       <c r="E4" s="1">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -792,8 +804,9 @@
       <c r="E5" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -809,8 +822,9 @@
       <c r="E6" s="1">
         <v>0.45400000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -826,8 +840,9 @@
       <c r="E7" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -843,8 +858,9 @@
       <c r="E8" s="1">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -860,8 +876,9 @@
       <c r="E9" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -877,8 +894,9 @@
       <c r="E10" s="1">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -894,8 +912,9 @@
       <c r="E11" s="1">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -911,8 +930,9 @@
       <c r="E12" s="1">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -928,8 +948,9 @@
       <c r="E13" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -945,8 +966,9 @@
       <c r="E14" s="1">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -962,8 +984,9 @@
       <c r="E15" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -979,8 +1002,9 @@
       <c r="E16" s="1">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -996,8 +1020,9 @@
       <c r="E17" s="1">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1013,8 +1038,9 @@
       <c r="E18" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -1030,6 +1056,7 @@
       <c r="E19" s="1">
         <v>0.36299999999999999</v>
       </c>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1041,7 +1068,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,20 +1081,20 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0.05</v>
       </c>
       <c r="B2" s="1">
@@ -1094,10 +1121,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1167,41 +1197,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66633837-0514-4681-8B35-BAEC6ED7148D}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1214,20 +1248,21 @@
       <c r="D2">
         <v>0.16</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>0.66</v>
       </c>
       <c r="I2" s="1">
         <v>0.68200000000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1235,27 +1270,28 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f>A3-B3</f>
+        <f t="shared" ref="C3:C26" si="0">A3-B3</f>
         <v>18</v>
       </c>
       <c r="D3">
-        <f>C3/100</f>
+        <f t="shared" ref="D3:D26" si="1">C3/100</f>
         <v>0.18</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.46</v>
       </c>
       <c r="I3" s="1">
         <v>0.45400000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>25</v>
       </c>
@@ -1263,27 +1299,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C4">
-        <f>A4-B4</f>
+        <f t="shared" si="0"/>
         <v>22.7</v>
       </c>
       <c r="D4">
-        <f>C4/100</f>
+        <f t="shared" si="1"/>
         <v>0.22699999999999998</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0.33</v>
       </c>
       <c r="I4" s="1">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>32</v>
       </c>
@@ -1291,27 +1328,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f>A5-B5</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="D5">
-        <f>C5/100</f>
+        <f t="shared" si="1"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0.26</v>
       </c>
       <c r="I5" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1319,27 +1357,28 @@
         <v>3.7</v>
       </c>
       <c r="C6">
-        <f>A6-B6</f>
+        <f t="shared" si="0"/>
         <v>36.299999999999997</v>
       </c>
       <c r="D6">
-        <f>C6/100</f>
+        <f t="shared" si="1"/>
         <v>0.36299999999999999</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.46</v>
       </c>
       <c r="I6" s="1">
         <v>0.45400000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1347,27 +1386,28 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C7">
-        <f>A7-B7</f>
+        <f t="shared" si="0"/>
         <v>45.4</v>
       </c>
       <c r="D7">
-        <f>C7/100</f>
+        <f t="shared" si="1"/>
         <v>0.45399999999999996</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.28000000000000003</v>
       </c>
       <c r="I7" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>63</v>
       </c>
@@ -1375,27 +1415,28 @@
         <v>5.8</v>
       </c>
       <c r="C8">
-        <f>A8-B8</f>
+        <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
       <c r="D8">
-        <f>C8/100</f>
+        <f t="shared" si="1"/>
         <v>0.57200000000000006</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>8</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>0.08</v>
       </c>
       <c r="I8" s="1">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>75</v>
       </c>
@@ -1403,27 +1444,28 @@
         <v>6.8</v>
       </c>
       <c r="C9">
-        <f>A9-B9</f>
+        <f t="shared" si="0"/>
         <v>68.2</v>
       </c>
       <c r="D9">
-        <f>C9/100</f>
+        <f t="shared" si="1"/>
         <v>0.68200000000000005</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>7</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>0.3</v>
       </c>
       <c r="I9" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>90</v>
       </c>
@@ -1431,27 +1473,28 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C10">
-        <f>A10-B10</f>
+        <f t="shared" si="0"/>
         <v>81.8</v>
       </c>
       <c r="D10">
-        <f>C10/100</f>
+        <f t="shared" si="1"/>
         <v>0.81799999999999995</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>7</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>8</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>0.27</v>
       </c>
       <c r="I10" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>110</v>
       </c>
@@ -1459,27 +1502,28 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <f>A11-B11</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D11">
-        <f>C11/100</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>9</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>0.3</v>
       </c>
       <c r="I11" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>125</v>
       </c>
@@ -1487,27 +1531,28 @@
         <v>11.4</v>
       </c>
       <c r="C12">
-        <f>A12-B12</f>
+        <f t="shared" si="0"/>
         <v>113.6</v>
       </c>
       <c r="D12">
-        <f>C12/100</f>
+        <f t="shared" si="1"/>
         <v>1.1359999999999999</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>7</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>0.26</v>
       </c>
       <c r="I12" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>140</v>
       </c>
@@ -1515,27 +1560,28 @@
         <v>12.7</v>
       </c>
       <c r="C13">
-        <f>A13-B13</f>
+        <f t="shared" si="0"/>
         <v>127.3</v>
       </c>
       <c r="D13">
-        <f>C13/100</f>
+        <f t="shared" si="1"/>
         <v>1.2729999999999999</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>8</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>11</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>0.23</v>
       </c>
       <c r="I13" s="1">
         <v>0.22700000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>160</v>
       </c>
@@ -1543,27 +1589,28 @@
         <v>14.6</v>
       </c>
       <c r="C14">
-        <f>A14-B14</f>
+        <f t="shared" si="0"/>
         <v>145.4</v>
       </c>
       <c r="D14">
-        <f>C14/100</f>
+        <f t="shared" si="1"/>
         <v>1.454</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>9</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>10</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>0.28000000000000003</v>
       </c>
       <c r="I14" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>180</v>
       </c>
@@ -1571,27 +1618,28 @@
         <v>16.399999999999999</v>
       </c>
       <c r="C15">
-        <f>A15-B15</f>
+        <f t="shared" si="0"/>
         <v>163.6</v>
       </c>
       <c r="D15">
-        <f>C15/100</f>
+        <f t="shared" si="1"/>
         <v>1.6359999999999999</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>10</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>0.22</v>
       </c>
       <c r="I15" s="1">
         <v>0.22700000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>200</v>
       </c>
@@ -1599,27 +1647,28 @@
         <v>18.2</v>
       </c>
       <c r="C16">
-        <f>A16-B16</f>
+        <f t="shared" si="0"/>
         <v>181.8</v>
       </c>
       <c r="D16">
-        <f>C16/100</f>
+        <f t="shared" si="1"/>
         <v>1.8180000000000001</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>10</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>12</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>0.28000000000000003</v>
       </c>
       <c r="I16" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>225</v>
       </c>
@@ -1627,27 +1676,28 @@
         <v>20.5</v>
       </c>
       <c r="C17">
-        <f>A17-B17</f>
+        <f t="shared" si="0"/>
         <v>204.5</v>
       </c>
       <c r="D17">
-        <f>C17/100</f>
+        <f t="shared" si="1"/>
         <v>2.0449999999999999</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>11</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>13</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>0.28000000000000003</v>
       </c>
       <c r="I17" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>250</v>
       </c>
@@ -1655,27 +1705,28 @@
         <v>22.7</v>
       </c>
       <c r="C18">
-        <f>A18-B18</f>
+        <f t="shared" si="0"/>
         <v>227.3</v>
       </c>
       <c r="D18">
-        <f>C18/100</f>
+        <f t="shared" si="1"/>
         <v>2.2730000000000001</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>12</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>13</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>0.21</v>
       </c>
       <c r="I18" s="1">
         <v>0.22700000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>280</v>
       </c>
@@ -1683,27 +1734,29 @@
         <v>25.4</v>
       </c>
       <c r="C19">
-        <f>A19-B19</f>
+        <f t="shared" si="0"/>
         <v>254.6</v>
       </c>
       <c r="D19">
-        <f>C19/100</f>
+        <f t="shared" si="1"/>
         <v>2.5459999999999998</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>13</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>14</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>0.31</v>
       </c>
       <c r="I19" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>315</v>
       </c>
@@ -1711,15 +1764,16 @@
         <v>28.6</v>
       </c>
       <c r="C20">
-        <f>A20-B20</f>
+        <f t="shared" si="0"/>
         <v>286.39999999999998</v>
       </c>
       <c r="D20">
-        <f>C20/100</f>
+        <f t="shared" si="1"/>
         <v>2.8639999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>355</v>
       </c>
@@ -1727,15 +1781,16 @@
         <v>32.200000000000003</v>
       </c>
       <c r="C21">
-        <f>A21-B21</f>
+        <f t="shared" si="0"/>
         <v>322.8</v>
       </c>
       <c r="D21">
-        <f>C21/100</f>
+        <f t="shared" si="1"/>
         <v>3.2280000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>400</v>
       </c>
@@ -1743,15 +1798,16 @@
         <v>36.299999999999997</v>
       </c>
       <c r="C22">
-        <f>A22-B22</f>
+        <f t="shared" si="0"/>
         <v>363.7</v>
       </c>
       <c r="D22">
-        <f>C22/100</f>
+        <f t="shared" si="1"/>
         <v>3.637</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>450</v>
       </c>
@@ -1759,15 +1815,16 @@
         <v>40.9</v>
       </c>
       <c r="C23">
-        <f>A23-B23</f>
+        <f t="shared" si="0"/>
         <v>409.1</v>
       </c>
       <c r="D23">
-        <f>C23/100</f>
+        <f t="shared" si="1"/>
         <v>4.0910000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>500</v>
       </c>
@@ -1775,15 +1832,19 @@
         <v>45.4</v>
       </c>
       <c r="C24">
-        <f>A24-B24</f>
+        <f t="shared" si="0"/>
         <v>454.6</v>
       </c>
       <c r="D24">
-        <f>C24/100</f>
+        <f t="shared" si="1"/>
         <v>4.5460000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>560</v>
       </c>
@@ -1791,15 +1852,19 @@
         <v>50.8</v>
       </c>
       <c r="C25">
-        <f>A25-B25</f>
+        <f t="shared" si="0"/>
         <v>509.2</v>
       </c>
       <c r="D25">
-        <f>C25/100</f>
+        <f t="shared" si="1"/>
         <v>5.0919999999999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>630</v>
       </c>
@@ -1807,13 +1872,44 @@
         <v>57.2</v>
       </c>
       <c r="C26">
-        <f>A26-B26</f>
+        <f t="shared" si="0"/>
         <v>572.79999999999995</v>
       </c>
       <c r="D26">
-        <f>C26/100</f>
+        <f t="shared" si="1"/>
         <v>5.7279999999999998</v>
       </c>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/network_data.xlsx
+++ b/network_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Μετσόβιο\3ο έτος\5ο εξάμηνο\ΕΦΑΡΜΟΣΜΕΝΗ ΡΕΥΣΤΟΜΗΧΑΝΙΚΗ\Προαιρετικό θέμα\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6352CE0-85B6-42A9-809F-E7323E4B2B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8854CB94-8AB4-4FF0-9D99-BEBD6DA17627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04931DC-3545-4AF0-B186-9B686BA492D9}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1788,6 +1788,9 @@
         <f t="shared" si="1"/>
         <v>3.2280000000000002</v>
       </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1805,6 +1808,9 @@
         <f t="shared" si="1"/>
         <v>3.637</v>
       </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1839,9 +1845,6 @@
         <f t="shared" si="1"/>
         <v>4.5460000000000003</v>
       </c>
-      <c r="H24" t="s">
-        <v>19</v>
-      </c>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1858,9 +1861,6 @@
       <c r="D25">
         <f t="shared" si="1"/>
         <v>5.0919999999999996</v>
-      </c>
-      <c r="H25" t="s">
-        <v>22</v>
       </c>
       <c r="N25" s="1"/>
     </row>

--- a/network_data.xlsx
+++ b/network_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Μετσόβιο\3ο έτος\5ο εξάμηνο\ΕΦΑΡΜΟΣΜΕΝΗ ΡΕΥΣΤΟΜΗΧΑΝΙΚΗ\Προαιρετικό θέμα\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8854CB94-8AB4-4FF0-9D99-BEBD6DA17627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52B6078-F5F4-4D88-9FB8-2C9933B0FBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -40,13 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Node A</t>
   </si>
@@ -102,13 +96,28 @@
     <t xml:space="preserve">*diameters from 2nd iter </t>
   </si>
   <si>
-    <t>d[mm] *</t>
-  </si>
-  <si>
-    <t>Din[mm] **</t>
-  </si>
-  <si>
     <t>**standardized diameters</t>
+  </si>
+  <si>
+    <t>Dout[m]</t>
+  </si>
+  <si>
+    <t>Din[m] **</t>
+  </si>
+  <si>
+    <t>Din[m] *</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Din,final[m] </t>
+  </si>
+  <si>
+    <t>x[m]</t>
+  </si>
+  <si>
+    <t>y[m]</t>
   </si>
 </sst>
 </file>
@@ -136,12 +145,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -157,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -166,6 +193,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,16 +526,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -709,32 +741,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -748,11 +780,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.57279999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -766,11 +797,10 @@
         <v>1.3</v>
       </c>
       <c r="E3" s="1">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.50919999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -784,11 +814,10 @@
         <v>1.3</v>
       </c>
       <c r="E4" s="1">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.36370000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -802,11 +831,10 @@
         <v>1.3</v>
       </c>
       <c r="E5" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.28639999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -820,11 +848,10 @@
         <v>1.3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.50919999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -838,11 +865,10 @@
         <v>1.3</v>
       </c>
       <c r="E7" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.32279999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -856,11 +882,10 @@
         <v>1.3</v>
       </c>
       <c r="E8" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -874,11 +899,10 @@
         <v>1.3</v>
       </c>
       <c r="E9" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.36370000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -892,11 +916,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.36370000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -910,11 +933,10 @@
         <v>1.3</v>
       </c>
       <c r="E11" s="1">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.36370000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -928,11 +950,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.28639999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -946,11 +967,10 @@
         <v>1.5</v>
       </c>
       <c r="E13" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.28639999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -964,11 +984,10 @@
         <v>1.3</v>
       </c>
       <c r="E14" s="1">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.36370000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -982,11 +1001,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.28639999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -1000,11 +1018,10 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.36370000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -1018,11 +1035,10 @@
         <v>1.5</v>
       </c>
       <c r="E17" s="1">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.36370000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1036,11 +1052,10 @@
         <v>1.5</v>
       </c>
       <c r="E18" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.25459999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -1054,9 +1069,8 @@
         <v>1.5</v>
       </c>
       <c r="E19" s="1">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>0.40910000000000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1081,16 +1095,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1116,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04931DC-3545-4AF0-B186-9B686BA492D9}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,7 +1141,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1199,704 +1213,925 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66633837-0514-4681-8B35-BAEC6ED7148D}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="65" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="12" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>A2-B2</f>
+        <v>18</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2/1000</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E2" s="5">
+        <f>A2/1000</f>
+        <v>0.02</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.57279999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C3">
+        <f>A3-B3</f>
+        <v>22.7</v>
+      </c>
+      <c r="D3" s="4">
+        <f>C3/1000</f>
+        <v>2.2699999999999998E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <f>A3/1000</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.4546</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.50919999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>A4-B4</f>
+        <v>29</v>
+      </c>
+      <c r="D4" s="4">
+        <f>C4/1000</f>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <f>A4/1000</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.32279999999999998</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.36370000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>3.7</v>
+      </c>
+      <c r="C5">
+        <f>A5-B5</f>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5/1000</f>
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <f>A5/1000</f>
+        <v>0.04</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.25459999999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.28639999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C6">
+        <f>A6-B6</f>
+        <v>45.4</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C6/1000</f>
+        <v>4.5399999999999996E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <f>A6/1000</f>
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.4546</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.50919999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>63</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="C7">
+        <f>A7-B7</f>
+        <v>57.2</v>
+      </c>
+      <c r="D7" s="4">
+        <f>C7/1000</f>
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <f>A7/1000</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.32279999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>6.8</v>
+      </c>
+      <c r="C8">
+        <f>A8-B8</f>
+        <v>68.2</v>
+      </c>
+      <c r="D8" s="4">
+        <f>C8/1000</f>
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <f>A8/1000</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>90</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C9">
+        <f>A9-B9</f>
+        <v>81.8</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9/1000</f>
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="E9" s="5">
+        <f>A9/1000</f>
+        <v>0.09</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.36370000000000002</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>110</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <f>A10-B10</f>
+        <v>100</v>
+      </c>
+      <c r="D10" s="4">
+        <f>C10/1000</f>
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="5">
+        <f>A10/1000</f>
+        <v>0.11</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.36370000000000002</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>125</v>
+      </c>
+      <c r="B11" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="C11">
+        <f>A11-B11</f>
+        <v>113.6</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C11/1000</f>
+        <v>0.11359999999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <f>A11/1000</f>
+        <v>0.125</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.36370000000000002</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>140</v>
+      </c>
+      <c r="B12" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="C12">
+        <f>A12-B12</f>
+        <v>127.3</v>
+      </c>
+      <c r="D12" s="4">
+        <f>C12/1000</f>
+        <v>0.1273</v>
+      </c>
+      <c r="E12" s="5">
+        <f>A12/1000</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.25459999999999999</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>160</v>
+      </c>
+      <c r="B13" s="6">
+        <v>14.6</v>
+      </c>
+      <c r="C13">
+        <f>A13-B13</f>
+        <v>145.4</v>
+      </c>
+      <c r="D13" s="4">
+        <f>C13/1000</f>
+        <v>0.1454</v>
+      </c>
+      <c r="E13" s="5">
+        <f>A13/1000</f>
+        <v>0.16</v>
+      </c>
+      <c r="G13" s="1">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.2273</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>180</v>
+      </c>
+      <c r="B14" s="6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C14">
+        <f>A14-B14</f>
+        <v>163.6</v>
+      </c>
+      <c r="D14" s="4">
+        <f>C14/1000</f>
+        <v>0.1636</v>
+      </c>
+      <c r="E14" s="5">
+        <f>A14/1000</f>
+        <v>0.18</v>
+      </c>
+      <c r="G14" s="1">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.36370000000000002</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>200</v>
+      </c>
+      <c r="B15" s="6">
+        <v>18.2</v>
+      </c>
+      <c r="C15">
+        <f>A15-B15</f>
+        <v>181.8</v>
+      </c>
+      <c r="D15" s="4">
+        <f>C15/1000</f>
+        <v>0.18180000000000002</v>
+      </c>
+      <c r="E15" s="5">
+        <f>A15/1000</f>
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.2273</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>225</v>
+      </c>
+      <c r="B16" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="C16">
+        <f>A16-B16</f>
+        <v>204.5</v>
+      </c>
+      <c r="D16" s="4">
+        <f>C16/1000</f>
+        <v>0.20449999999999999</v>
+      </c>
+      <c r="E16" s="5">
+        <f>A16/1000</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.36370000000000002</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>250</v>
+      </c>
+      <c r="B17" s="6">
+        <v>22.7</v>
+      </c>
+      <c r="C17">
+        <f>A17-B17</f>
+        <v>227.3</v>
+      </c>
+      <c r="D17" s="4">
+        <f>C17/1000</f>
+        <v>0.2273</v>
+      </c>
+      <c r="E17" s="5">
+        <f>A17/1000</f>
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="1">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H17" s="1">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.36370000000000002</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>280</v>
+      </c>
+      <c r="B18" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="C18">
+        <f>A18-B18</f>
+        <v>254.6</v>
+      </c>
+      <c r="D18" s="4">
+        <f>C18/1000</f>
+        <v>0.25459999999999999</v>
+      </c>
+      <c r="E18" s="5">
+        <f>A18/1000</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G18" s="1">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>0.16</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C26" si="0">A3-B3</f>
+      <c r="H18" s="1">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.20449999999999999</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.25459999999999999</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>315</v>
+      </c>
+      <c r="B19" s="6">
+        <v>28.6</v>
+      </c>
+      <c r="C19">
+        <f>A19-B19</f>
+        <v>286.39999999999998</v>
+      </c>
+      <c r="D19" s="4">
+        <f>C19/1000</f>
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="E19" s="5">
+        <f>A19/1000</f>
+        <v>0.315</v>
+      </c>
+      <c r="G19" s="1">
         <v>18</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D26" si="1">C3/100</f>
-        <v>0.18</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>22.7</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>0.22699999999999998</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>32</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>3.7</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
+      <c r="H19" s="1">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1">
+        <v>14</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.32279999999999998</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>355</v>
+      </c>
+      <c r="B20" s="6">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C20">
+        <f>A20-B20</f>
+        <v>322.8</v>
+      </c>
+      <c r="D20" s="4">
+        <f>C20/1000</f>
+        <v>0.32280000000000003</v>
+      </c>
+      <c r="E20" s="5">
+        <f>A20/1000</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>400</v>
+      </c>
+      <c r="B21" s="6">
         <v>36.299999999999997</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
+      <c r="C21">
+        <f>A21-B21</f>
+        <v>363.7</v>
+      </c>
+      <c r="D21" s="4">
+        <f>C21/1000</f>
+        <v>0.36369999999999997</v>
+      </c>
+      <c r="E21" s="5">
+        <f>A21/1000</f>
+        <v>0.4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>450</v>
+      </c>
+      <c r="B22" s="6">
+        <v>40.9</v>
+      </c>
+      <c r="C22">
+        <f>A22-B22</f>
+        <v>409.1</v>
+      </c>
+      <c r="D22" s="4">
+        <f>C22/1000</f>
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="E22" s="5">
+        <f>A22/1000</f>
+        <v>0.45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>500</v>
+      </c>
+      <c r="B23" s="6">
         <v>45.4</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>0.45399999999999996</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>63</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
+      <c r="C23">
+        <f>A23-B23</f>
+        <v>454.6</v>
+      </c>
+      <c r="D23" s="4">
+        <f>C23/1000</f>
+        <v>0.4546</v>
+      </c>
+      <c r="E23" s="5">
+        <f>A23/1000</f>
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>560</v>
+      </c>
+      <c r="B24" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="C24">
+        <f>A24-B24</f>
+        <v>509.2</v>
+      </c>
+      <c r="D24" s="4">
+        <f>C24/1000</f>
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="E24" s="5">
+        <f>A24/1000</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>630</v>
+      </c>
+      <c r="B25" s="6">
         <v>57.2</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>0.57200000000000006</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>75</v>
-      </c>
-      <c r="B9">
-        <v>6.8</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>68.2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="F9" s="1">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>90</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>81.8</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="F10" s="1">
-        <v>7</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>110</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>125</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>113.6</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="F12" s="1">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>140</v>
-      </c>
-      <c r="B13" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>127.3</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="F13" s="1">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1">
-        <v>11</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>160</v>
-      </c>
-      <c r="B14" s="3">
-        <v>14.6</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>145.4</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>1.454</v>
-      </c>
-      <c r="F14" s="1">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>180</v>
-      </c>
-      <c r="B15" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>163.6</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>200</v>
-      </c>
-      <c r="B16" s="3">
-        <v>18.2</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>181.8</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>1.8180000000000001</v>
-      </c>
-      <c r="F16" s="1">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1">
-        <v>12</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>225</v>
-      </c>
-      <c r="B17" s="3">
-        <v>20.5</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>204.5</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="F17" s="1">
-        <v>11</v>
-      </c>
-      <c r="G17" s="1">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>250</v>
-      </c>
-      <c r="B18" s="3">
-        <v>22.7</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>227.3</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>2.2730000000000001</v>
-      </c>
-      <c r="F18" s="1">
-        <v>12</v>
-      </c>
-      <c r="G18" s="1">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>280</v>
-      </c>
-      <c r="B19" s="3">
-        <v>25.4</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>254.6</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>2.5459999999999998</v>
-      </c>
-      <c r="F19" s="1">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1">
-        <v>14</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>315</v>
-      </c>
-      <c r="B20" s="3">
-        <v>28.6</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>286.39999999999998</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>2.8639999999999999</v>
-      </c>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>355</v>
-      </c>
-      <c r="B21" s="3">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>322.8</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>3.2280000000000002</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>400</v>
-      </c>
-      <c r="B22" s="3">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>363.7</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>3.637</v>
-      </c>
-      <c r="H22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>450</v>
-      </c>
-      <c r="B23" s="3">
-        <v>40.9</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>409.1</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>4.0910000000000002</v>
-      </c>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>500</v>
-      </c>
-      <c r="B24" s="3">
-        <v>45.4</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>454.6</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>4.5460000000000003</v>
-      </c>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>560</v>
-      </c>
-      <c r="B25" s="3">
-        <v>50.8</v>
-      </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>509.2</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>5.0919999999999996</v>
-      </c>
-      <c r="N25" s="1"/>
+        <f>A25-B25</f>
+        <v>572.79999999999995</v>
+      </c>
+      <c r="D25" s="4">
+        <f>C25/1000</f>
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="E25" s="5">
+        <f>A25/1000</f>
+        <v>0.63</v>
+      </c>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>630</v>
-      </c>
-      <c r="B26" s="3">
-        <v>57.2</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>572.79999999999995</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>5.7279999999999998</v>
-      </c>
-      <c r="N26" s="1"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="14:14" x14ac:dyDescent="0.3">

--- a/network_data.xlsx
+++ b/network_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Μετσόβιο\3ο έτος\5ο εξάμηνο\ΕΦΑΡΜΟΣΜΕΝΗ ΡΕΥΣΤΟΜΗΧΑΝΙΚΗ\Προαιρετικό θέμα\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52B6078-F5F4-4D88-9FB8-2C9933B0FBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34DF015-47A9-4300-BDC7-0462093745A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>ζ</t>
   </si>
   <si>
-    <t>ε</t>
-  </si>
-  <si>
     <t>v [m^2/s]</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>y[m]</t>
+  </si>
+  <si>
+    <t>ε[m]</t>
   </si>
 </sst>
 </file>
@@ -197,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="87" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,16 +526,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,13 +757,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -797,7 +797,7 @@
         <v>1.3</v>
       </c>
       <c r="E3" s="1">
-        <v>0.50919999999999999</v>
+        <v>0.4546</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>1.3</v>
       </c>
       <c r="E4" s="1">
-        <v>0.36370000000000002</v>
+        <v>0.32279999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -831,7 +831,7 @@
         <v>1.3</v>
       </c>
       <c r="E5" s="1">
-        <v>0.28639999999999999</v>
+        <v>0.25459999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -848,7 +848,7 @@
         <v>1.3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.50919999999999999</v>
+        <v>0.4546</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>1.3</v>
       </c>
       <c r="E7" s="1">
-        <v>0.32279999999999998</v>
+        <v>0.28639999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -882,7 +882,7 @@
         <v>1.3</v>
       </c>
       <c r="E8" s="1">
-        <v>2.2700000000000001E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -899,7 +899,7 @@
         <v>1.3</v>
       </c>
       <c r="E9" s="1">
-        <v>0.36370000000000002</v>
+        <v>0.28639999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.36370000000000002</v>
+        <v>0.25459999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -933,7 +933,7 @@
         <v>1.3</v>
       </c>
       <c r="E11" s="1">
-        <v>0.36370000000000002</v>
+        <v>0.28639999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>0.28639999999999999</v>
+        <v>0.25459999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -967,7 +967,7 @@
         <v>1.5</v>
       </c>
       <c r="E13" s="1">
-        <v>0.28639999999999999</v>
+        <v>0.2273</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -984,7 +984,7 @@
         <v>1.3</v>
       </c>
       <c r="E14" s="1">
-        <v>0.36370000000000002</v>
+        <v>0.28639999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1001,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>0.28639999999999999</v>
+        <v>0.2273</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.36370000000000002</v>
+        <v>0.28639999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1035,7 +1035,7 @@
         <v>1.5</v>
       </c>
       <c r="E17" s="1">
-        <v>0.36370000000000002</v>
+        <v>0.28639999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>1.5</v>
       </c>
       <c r="E18" s="1">
-        <v>0.25459999999999999</v>
+        <v>0.20449999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1069,7 +1069,7 @@
         <v>1.5</v>
       </c>
       <c r="E19" s="1">
-        <v>0.40910000000000002</v>
+        <v>0.32279999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,21 +1095,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0.05</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="B2" s="1">
         <v>1.3570000000000001E-5</v>
@@ -1141,7 +1141,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66633837-0514-4681-8B35-BAEC6ED7148D}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="C1" zoomScale="86" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,37 +1230,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1271,15 +1271,15 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <f>A2-B2</f>
+        <f t="shared" ref="C2:C25" si="0">A2-B2</f>
         <v>18</v>
       </c>
       <c r="D2" s="4">
-        <f>C2/1000</f>
+        <f t="shared" ref="D2:D25" si="1">C2/1000</f>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E2" s="5">
-        <f>A2/1000</f>
+        <f t="shared" ref="E2:E25" si="2">A2/1000</f>
         <v>0.02</v>
       </c>
       <c r="G2" s="1">
@@ -1309,15 +1309,15 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C3">
-        <f>A3-B3</f>
+        <f t="shared" si="0"/>
         <v>22.7</v>
       </c>
       <c r="D3" s="4">
-        <f>C3/1000</f>
+        <f t="shared" si="1"/>
         <v>2.2699999999999998E-2</v>
       </c>
       <c r="E3" s="5">
-        <f>A3/1000</f>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G3" s="1">
@@ -1336,7 +1336,7 @@
         <v>0.4546</v>
       </c>
       <c r="L3" s="1">
-        <v>0.50919999999999999</v>
+        <v>0.4546</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1347,15 +1347,15 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f>A4-B4</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="D4" s="4">
-        <f>C4/1000</f>
+        <f t="shared" si="1"/>
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E4" s="5">
-        <f>A4/1000</f>
+        <f t="shared" si="2"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G4" s="1">
@@ -1374,7 +1374,7 @@
         <v>0.32279999999999998</v>
       </c>
       <c r="L4" s="1">
-        <v>0.36370000000000002</v>
+        <v>0.32279999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1385,15 +1385,15 @@
         <v>3.7</v>
       </c>
       <c r="C5">
-        <f>A5-B5</f>
+        <f t="shared" si="0"/>
         <v>36.299999999999997</v>
       </c>
       <c r="D5" s="4">
-        <f>C5/1000</f>
+        <f t="shared" si="1"/>
         <v>3.6299999999999999E-2</v>
       </c>
       <c r="E5" s="5">
-        <f>A5/1000</f>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="G5" s="1">
@@ -1412,7 +1412,7 @@
         <v>0.25459999999999999</v>
       </c>
       <c r="L5" s="1">
-        <v>0.28639999999999999</v>
+        <v>0.25459999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1423,15 +1423,15 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C6">
-        <f>A6-B6</f>
+        <f t="shared" si="0"/>
         <v>45.4</v>
       </c>
       <c r="D6" s="4">
-        <f>C6/1000</f>
+        <f t="shared" si="1"/>
         <v>4.5399999999999996E-2</v>
       </c>
       <c r="E6" s="5">
-        <f>A6/1000</f>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="G6" s="1">
@@ -1450,7 +1450,7 @@
         <v>0.4546</v>
       </c>
       <c r="L6" s="1">
-        <v>0.50919999999999999</v>
+        <v>0.4546</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1461,15 +1461,15 @@
         <v>5.8</v>
       </c>
       <c r="C7">
-        <f>A7-B7</f>
+        <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
       <c r="D7" s="4">
-        <f>C7/1000</f>
+        <f t="shared" si="1"/>
         <v>5.7200000000000001E-2</v>
       </c>
       <c r="E7" s="5">
-        <f>A7/1000</f>
+        <f t="shared" si="2"/>
         <v>6.3E-2</v>
       </c>
       <c r="G7" s="1">
@@ -1488,7 +1488,7 @@
         <v>0.28639999999999999</v>
       </c>
       <c r="L7" s="1">
-        <v>0.32279999999999998</v>
+        <v>0.28639999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1499,15 +1499,15 @@
         <v>6.8</v>
       </c>
       <c r="C8">
-        <f>A8-B8</f>
+        <f t="shared" si="0"/>
         <v>68.2</v>
       </c>
       <c r="D8" s="4">
-        <f>C8/1000</f>
+        <f t="shared" si="1"/>
         <v>6.8199999999999997E-2</v>
       </c>
       <c r="E8" s="5">
-        <f>A8/1000</f>
+        <f t="shared" si="2"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G8" s="1">
@@ -1520,13 +1520,13 @@
         <v>8</v>
       </c>
       <c r="J8" s="1">
-        <v>0.08</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="K8" s="1">
-        <v>8.1799999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L8" s="1">
-        <v>2.2700000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -1538,15 +1538,15 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C9">
-        <f>A9-B9</f>
+        <f t="shared" si="0"/>
         <v>81.8</v>
       </c>
       <c r="D9" s="4">
-        <f>C9/1000</f>
+        <f t="shared" si="1"/>
         <v>8.1799999999999998E-2</v>
       </c>
       <c r="E9" s="5">
-        <f>A9/1000</f>
+        <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
       <c r="G9" s="1">
@@ -1565,7 +1565,7 @@
         <v>0.28639999999999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0.36370000000000002</v>
+        <v>0.28639999999999999</v>
       </c>
       <c r="M9" s="3"/>
     </row>
@@ -1577,15 +1577,15 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <f>A10-B10</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D10" s="4">
-        <f>C10/1000</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E10" s="5">
-        <f>A10/1000</f>
+        <f t="shared" si="2"/>
         <v>0.11</v>
       </c>
       <c r="G10" s="1">
@@ -1598,13 +1598,13 @@
         <v>8</v>
       </c>
       <c r="J10" s="1">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="K10" s="1">
-        <v>0.28639999999999999</v>
+        <v>0.25459999999999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0.36370000000000002</v>
+        <v>0.25459999999999999</v>
       </c>
       <c r="M10" s="3"/>
     </row>
@@ -1616,15 +1616,15 @@
         <v>11.4</v>
       </c>
       <c r="C11">
-        <f>A11-B11</f>
+        <f t="shared" si="0"/>
         <v>113.6</v>
       </c>
       <c r="D11" s="4">
-        <f>C11/1000</f>
+        <f t="shared" si="1"/>
         <v>0.11359999999999999</v>
       </c>
       <c r="E11" s="5">
-        <f>A11/1000</f>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="G11" s="1">
@@ -1643,7 +1643,7 @@
         <v>0.28639999999999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0.36370000000000002</v>
+        <v>0.28639999999999999</v>
       </c>
       <c r="M11" s="3"/>
     </row>
@@ -1655,15 +1655,15 @@
         <v>12.7</v>
       </c>
       <c r="C12">
-        <f>A12-B12</f>
+        <f t="shared" si="0"/>
         <v>127.3</v>
       </c>
       <c r="D12" s="4">
-        <f>C12/1000</f>
+        <f t="shared" si="1"/>
         <v>0.1273</v>
       </c>
       <c r="E12" s="5">
-        <f>A12/1000</f>
+        <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="G12" s="1">
@@ -1682,7 +1682,7 @@
         <v>0.25459999999999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0.28639999999999999</v>
+        <v>0.25459999999999999</v>
       </c>
       <c r="M12" s="3"/>
     </row>
@@ -1694,15 +1694,15 @@
         <v>14.6</v>
       </c>
       <c r="C13">
-        <f>A13-B13</f>
+        <f t="shared" si="0"/>
         <v>145.4</v>
       </c>
       <c r="D13" s="4">
-        <f>C13/1000</f>
+        <f t="shared" si="1"/>
         <v>0.1454</v>
       </c>
       <c r="E13" s="5">
-        <f>A13/1000</f>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="G13" s="1">
@@ -1721,7 +1721,7 @@
         <v>0.2273</v>
       </c>
       <c r="L13" s="1">
-        <v>0.28639999999999999</v>
+        <v>0.2273</v>
       </c>
       <c r="M13" s="3"/>
     </row>
@@ -1733,15 +1733,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="C14">
-        <f>A14-B14</f>
+        <f t="shared" si="0"/>
         <v>163.6</v>
       </c>
       <c r="D14" s="4">
-        <f>C14/1000</f>
+        <f t="shared" si="1"/>
         <v>0.1636</v>
       </c>
       <c r="E14" s="5">
-        <f>A14/1000</f>
+        <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
       <c r="G14" s="1">
@@ -1760,7 +1760,7 @@
         <v>0.28639999999999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0.36370000000000002</v>
+        <v>0.28639999999999999</v>
       </c>
       <c r="M14" s="3"/>
     </row>
@@ -1772,15 +1772,15 @@
         <v>18.2</v>
       </c>
       <c r="C15">
-        <f>A15-B15</f>
+        <f t="shared" si="0"/>
         <v>181.8</v>
       </c>
       <c r="D15" s="4">
-        <f>C15/1000</f>
+        <f t="shared" si="1"/>
         <v>0.18180000000000002</v>
       </c>
       <c r="E15" s="5">
-        <f>A15/1000</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="G15" s="1">
@@ -1799,7 +1799,7 @@
         <v>0.2273</v>
       </c>
       <c r="L15" s="1">
-        <v>0.28639999999999999</v>
+        <v>0.2273</v>
       </c>
       <c r="M15" s="3"/>
     </row>
@@ -1811,15 +1811,15 @@
         <v>20.5</v>
       </c>
       <c r="C16">
-        <f>A16-B16</f>
+        <f t="shared" si="0"/>
         <v>204.5</v>
       </c>
       <c r="D16" s="4">
-        <f>C16/1000</f>
+        <f t="shared" si="1"/>
         <v>0.20449999999999999</v>
       </c>
       <c r="E16" s="5">
-        <f>A16/1000</f>
+        <f t="shared" si="2"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="G16" s="1">
@@ -1838,7 +1838,7 @@
         <v>0.28639999999999999</v>
       </c>
       <c r="L16" s="1">
-        <v>0.36370000000000002</v>
+        <v>0.28639999999999999</v>
       </c>
       <c r="M16" s="3"/>
     </row>
@@ -1850,15 +1850,15 @@
         <v>22.7</v>
       </c>
       <c r="C17">
-        <f>A17-B17</f>
+        <f t="shared" si="0"/>
         <v>227.3</v>
       </c>
       <c r="D17" s="4">
-        <f>C17/1000</f>
+        <f t="shared" si="1"/>
         <v>0.2273</v>
       </c>
       <c r="E17" s="5">
-        <f>A17/1000</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="G17" s="1">
@@ -1877,7 +1877,7 @@
         <v>0.28639999999999999</v>
       </c>
       <c r="L17" s="1">
-        <v>0.36370000000000002</v>
+        <v>0.28639999999999999</v>
       </c>
       <c r="M17" s="3"/>
     </row>
@@ -1889,15 +1889,15 @@
         <v>25.4</v>
       </c>
       <c r="C18">
-        <f>A18-B18</f>
+        <f t="shared" si="0"/>
         <v>254.6</v>
       </c>
       <c r="D18" s="4">
-        <f>C18/1000</f>
+        <f t="shared" si="1"/>
         <v>0.25459999999999999</v>
       </c>
       <c r="E18" s="5">
-        <f>A18/1000</f>
+        <f t="shared" si="2"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="G18" s="1">
@@ -1916,7 +1916,7 @@
         <v>0.20449999999999999</v>
       </c>
       <c r="L18" s="1">
-        <v>0.25459999999999999</v>
+        <v>0.20449999999999999</v>
       </c>
       <c r="M18" s="3"/>
     </row>
@@ -1928,15 +1928,15 @@
         <v>28.6</v>
       </c>
       <c r="C19">
-        <f>A19-B19</f>
+        <f t="shared" si="0"/>
         <v>286.39999999999998</v>
       </c>
       <c r="D19" s="4">
-        <f>C19/1000</f>
+        <f t="shared" si="1"/>
         <v>0.28639999999999999</v>
       </c>
       <c r="E19" s="5">
-        <f>A19/1000</f>
+        <f t="shared" si="2"/>
         <v>0.315</v>
       </c>
       <c r="G19" s="1">
@@ -1955,7 +1955,7 @@
         <v>0.32279999999999998</v>
       </c>
       <c r="L19" s="1">
-        <v>0.40910000000000002</v>
+        <v>0.32279999999999998</v>
       </c>
       <c r="M19" s="3"/>
     </row>
@@ -1967,15 +1967,15 @@
         <v>32.200000000000003</v>
       </c>
       <c r="C20">
-        <f>A20-B20</f>
+        <f t="shared" si="0"/>
         <v>322.8</v>
       </c>
       <c r="D20" s="4">
-        <f>C20/1000</f>
+        <f t="shared" si="1"/>
         <v>0.32280000000000003</v>
       </c>
       <c r="E20" s="5">
-        <f>A20/1000</f>
+        <f t="shared" si="2"/>
         <v>0.35499999999999998</v>
       </c>
       <c r="M20" s="3"/>
@@ -1988,19 +1988,19 @@
         <v>36.299999999999997</v>
       </c>
       <c r="C21">
-        <f>A21-B21</f>
+        <f t="shared" si="0"/>
         <v>363.7</v>
       </c>
       <c r="D21" s="4">
-        <f>C21/1000</f>
+        <f t="shared" si="1"/>
         <v>0.36369999999999997</v>
       </c>
       <c r="E21" s="5">
-        <f>A21/1000</f>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M21" s="3"/>
     </row>
@@ -2012,19 +2012,19 @@
         <v>40.9</v>
       </c>
       <c r="C22">
-        <f>A22-B22</f>
+        <f t="shared" si="0"/>
         <v>409.1</v>
       </c>
       <c r="D22" s="4">
-        <f>C22/1000</f>
+        <f t="shared" si="1"/>
         <v>0.40910000000000002</v>
       </c>
       <c r="E22" s="5">
-        <f>A22/1000</f>
+        <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M22" s="3"/>
     </row>
@@ -2036,15 +2036,15 @@
         <v>45.4</v>
       </c>
       <c r="C23">
-        <f>A23-B23</f>
+        <f t="shared" si="0"/>
         <v>454.6</v>
       </c>
       <c r="D23" s="4">
-        <f>C23/1000</f>
+        <f t="shared" si="1"/>
         <v>0.4546</v>
       </c>
       <c r="E23" s="5">
-        <f>A23/1000</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="M23" s="3"/>
@@ -2057,15 +2057,15 @@
         <v>50.8</v>
       </c>
       <c r="C24">
-        <f>A24-B24</f>
+        <f t="shared" si="0"/>
         <v>509.2</v>
       </c>
       <c r="D24" s="4">
-        <f>C24/1000</f>
+        <f t="shared" si="1"/>
         <v>0.50919999999999999</v>
       </c>
       <c r="E24" s="5">
-        <f>A24/1000</f>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="M24" s="3"/>
@@ -2078,15 +2078,15 @@
         <v>57.2</v>
       </c>
       <c r="C25">
-        <f>A25-B25</f>
+        <f t="shared" si="0"/>
         <v>572.79999999999995</v>
       </c>
       <c r="D25" s="4">
-        <f>C25/1000</f>
+        <f t="shared" si="1"/>
         <v>0.57279999999999998</v>
       </c>
       <c r="E25" s="5">
-        <f>A25/1000</f>
+        <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
       <c r="M25" s="3"/>
